--- a/ARIMA_GARCH_res.xlsx
+++ b/ARIMA_GARCH_res.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pioo\notebooks\wm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7100053F-CEBF-4F98-8174-E700F152FE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D275B7-0C39-46FD-8F6C-1BDBC4CD6EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="2640" windowWidth="12240" windowHeight="11370" xr2:uid="{7F256C3D-D3D3-4205-8CF9-97E938646406}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F256C3D-D3D3-4205-8CF9-97E938646406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>[0,</t>
   </si>
@@ -282,88 +285,10 @@
     <t>[3,</t>
   </si>
   <si>
-    <t>2.1566315483748602e-05</t>
-  </si>
-  <si>
-    <t>6.998727331386489</t>
-  </si>
-  <si>
-    <t>2.144523866553776e-05</t>
-  </si>
-  <si>
-    <t>8.955877204057904</t>
-  </si>
-  <si>
-    <t>2.123856955504833e-05</t>
-  </si>
-  <si>
-    <t>7.187773518561746</t>
-  </si>
-  <si>
-    <t>2.0520875134336343e-05</t>
-  </si>
-  <si>
-    <t>34.37178900761669</t>
-  </si>
-  <si>
-    <t>2.4088934846156877e-05</t>
-  </si>
-  <si>
-    <t>1.0234037066295365</t>
-  </si>
-  <si>
-    <t>2.3391709693437894e-05</t>
-  </si>
-  <si>
-    <t>3.943104727855881</t>
-  </si>
-  <si>
-    <t>2.2642413870577157e-05</t>
-  </si>
-  <si>
-    <t>5.16538646542315</t>
-  </si>
-  <si>
-    <t>2.320181582344268e-05</t>
-  </si>
-  <si>
-    <t>6.288247506120094</t>
-  </si>
-  <si>
-    <t>3.075470229334545e-05</t>
-  </si>
-  <si>
-    <t>1.175898143842245</t>
-  </si>
-  <si>
-    <t>3.2375425037891006e-05</t>
-  </si>
-  <si>
-    <t>1.935612912041404</t>
-  </si>
-  <si>
-    <t>3.181132915523915e-05</t>
-  </si>
-  <si>
-    <t>3.7934001775951534</t>
-  </si>
-  <si>
-    <t>3.208246564986459e-05</t>
-  </si>
-  <si>
-    <t>14.087567033465362</t>
-  </si>
-  <si>
-    <t>3.200797316698139e-05</t>
-  </si>
-  <si>
-    <t>3.110145072092497e-05</t>
-  </si>
-  <si>
-    <t>3.09956749186006e-05</t>
-  </si>
-  <si>
-    <t>3.0029710627584365e-05</t>
+    <t>garch</t>
+  </si>
+  <si>
+    <t>arima</t>
   </si>
 </sst>
 </file>
@@ -400,8 +325,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,89 +642,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750DD1FA-8278-403E-9463-F87043358E02}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E60"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>53</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -807,95 +725,95 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0520875134336298E-5</v>
+      </c>
+      <c r="E9">
+        <v>34.371789007616599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>53</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,21 +821,21 @@
         <v>82</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1238569555048299E-5</v>
+      </c>
+      <c r="E11">
+        <v>7.1877735185617402</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -925,147 +843,147 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1">
+        <v>2.14452386655377E-5</v>
+      </c>
+      <c r="E12">
+        <v>8.9558772040579004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.1566315483748598E-5</v>
+      </c>
+      <c r="E14">
+        <v>6.9987273313864797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.26424138705771E-5</v>
+      </c>
+      <c r="E18">
+        <v>5.1653864654231496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,53 +991,53 @@
         <v>82</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
+      <c r="D21" s="1">
+        <v>2.3201815823442602E-5</v>
+      </c>
+      <c r="E21">
+        <v>6.28824750612009</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.3391709693437799E-5</v>
+      </c>
+      <c r="E22">
+        <v>3.94310472785588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1127,35 +1045,35 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1164,47 +1082,47 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1212,169 +1130,169 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.4088934846156799E-5</v>
+      </c>
+      <c r="E31">
+        <v>1.0234037066295301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1">
+        <v>3.0029710627584301E-5</v>
+      </c>
+      <c r="E34">
+        <v>68.991701552419798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0754702293345403E-5</v>
+      </c>
+      <c r="E36">
+        <v>1.17589814384224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1382,50 +1300,50 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1433,50 +1351,50 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1484,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1501,16 +1419,16 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1518,27 +1436,27 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -1546,33 +1464,33 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.0995674918600598E-5</v>
+      </c>
+      <c r="E49">
+        <v>68.991701552419798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -1588,31 +1506,31 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
+      <c r="D51" s="1">
+        <v>3.1101450720924897E-5</v>
+      </c>
+      <c r="E51">
+        <v>68.991701552419798</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.18113291552391E-5</v>
+      </c>
+      <c r="E52">
+        <v>3.7934001775951498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1620,27 +1538,27 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
@@ -1648,58 +1566,58 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.2007973166981299E-5</v>
+      </c>
+      <c r="E55">
+        <v>68.991701552419798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>80</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>25</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1707,50 +1625,77 @@
       <c r="C58" t="s">
         <v>10</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1">
+        <v>3.2082465649864501E-5</v>
+      </c>
+      <c r="E58">
+        <v>14.0875670334653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
         <v>47</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>53</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>82</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" t="s">
-        <v>86</v>
+      <c r="D61" s="1">
+        <v>3.2375425037890999E-5</v>
+      </c>
+      <c r="E61">
+        <v>1.9356129120414001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E60">
-    <sortCondition ref="E1:E60"/>
+  <autoFilter ref="A1:E61" xr:uid="{CA055B03-F0F1-4AD2-8CB4-E1A38A8111F6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="[3,"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E61">
+      <sortCondition ref="D1:D61"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+    <sortCondition ref="E2:E61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
